--- a/Part 1 Data.xlsx
+++ b/Part 1 Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF855F44-B750-48F4-832D-7DCF143660EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD7A018-C515-43AA-B60D-E99C921D228D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$F$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$145</definedName>
     <definedName name="Hackathon_Data_File_2__3" localSheetId="1">Sheet2!$A$1:$B$1707</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
@@ -10315,10 +10315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10332,48 +10332,93 @@
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>3283</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>VLOOKUP(D2,Sheet2!A:B,2,FALSE)</f>
+        <v>American</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f>VLOOKUP(D3,Sheet2!A:B,2,FALSE)</f>
+        <v>United</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f>VLOOKUP(D4,Sheet2!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Southwest </v>
+      </c>
+      <c r="F4" s="5">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
@@ -10381,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>24</v>
@@ -10391,10 +10436,10 @@
         <v>American</v>
       </c>
       <c r="F5" s="5">
-        <v>2298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -10402,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>25</v>
@@ -10412,10 +10457,17 @@
         <v>United</v>
       </c>
       <c r="F6" s="5">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1186</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -10423,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>26</v>
@@ -10433,10 +10485,17 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F7" s="5">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1172</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -10444,7 +10503,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
@@ -10454,10 +10513,10 @@
         <v>American</v>
       </c>
       <c r="F8" s="5">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
@@ -10465,7 +10524,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>25</v>
@@ -10475,10 +10534,10 @@
         <v>United</v>
       </c>
       <c r="F9" s="5">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -10486,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -10496,10 +10555,10 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F10" s="5">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
@@ -10507,7 +10566,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
@@ -10517,10 +10576,10 @@
         <v>American</v>
       </c>
       <c r="F11" s="5">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
@@ -10528,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
@@ -10538,10 +10597,10 @@
         <v>United</v>
       </c>
       <c r="F12" s="5">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
@@ -10549,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
@@ -10559,10 +10618,10 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F13" s="5">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
@@ -10570,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
@@ -10580,10 +10639,10 @@
         <v>American</v>
       </c>
       <c r="F14" s="5">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
@@ -10591,7 +10650,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>25</v>
@@ -10601,10 +10660,10 @@
         <v>United</v>
       </c>
       <c r="F15" s="5">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -10612,7 +10671,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>26</v>
@@ -10622,7 +10681,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F16" s="5">
-        <v>1044</v>
+        <v>994</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10633,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>24</v>
@@ -10643,7 +10702,7 @@
         <v>American</v>
       </c>
       <c r="F17" s="5">
-        <v>2089</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10654,7 +10713,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>25</v>
@@ -10664,7 +10723,7 @@
         <v>United</v>
       </c>
       <c r="F18" s="5">
-        <v>1033</v>
+        <v>994</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10675,7 +10734,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>26</v>
@@ -10685,18 +10744,18 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F19" s="5">
-        <v>994</v>
+        <v>948</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="C20" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>24</v>
@@ -10706,18 +10765,18 @@
         <v>American</v>
       </c>
       <c r="F20" s="5">
-        <v>2019</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="C21" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>25</v>
@@ -10727,18 +10786,18 @@
         <v>United</v>
       </c>
       <c r="F21" s="5">
-        <v>994</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="C22" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>26</v>
@@ -10748,7 +10807,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F22" s="5">
-        <v>948</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -10759,7 +10818,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>24</v>
@@ -10769,7 +10828,7 @@
         <v>American</v>
       </c>
       <c r="F23" s="5">
-        <v>8276</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -10780,7 +10839,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>25</v>
@@ -10790,7 +10849,7 @@
         <v>United</v>
       </c>
       <c r="F24" s="5">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -10801,7 +10860,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>26</v>
@@ -10811,7 +10870,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F25" s="5">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10822,7 +10881,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>24</v>
@@ -10832,7 +10891,7 @@
         <v>American</v>
       </c>
       <c r="F26" s="5">
-        <v>8400</v>
+        <v>8065</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -10843,7 +10902,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>25</v>
@@ -10853,7 +10912,7 @@
         <v>United</v>
       </c>
       <c r="F27" s="5">
-        <v>174</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10864,7 +10923,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>26</v>
@@ -10874,7 +10933,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F28" s="5">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10885,7 +10944,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
@@ -10895,7 +10954,7 @@
         <v>American</v>
       </c>
       <c r="F29" s="5">
-        <v>8065</v>
+        <v>8349</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10906,7 +10965,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>25</v>
@@ -10916,7 +10975,7 @@
         <v>United</v>
       </c>
       <c r="F30" s="5">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -10927,7 +10986,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>26</v>
@@ -10937,7 +10996,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F31" s="5">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -10948,7 +11007,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>24</v>
@@ -10958,7 +11017,7 @@
         <v>American</v>
       </c>
       <c r="F32" s="5">
-        <v>8349</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -10969,7 +11028,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>25</v>
@@ -10979,7 +11038,7 @@
         <v>United</v>
       </c>
       <c r="F33" s="5">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10990,7 +11049,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>26</v>
@@ -11000,7 +11059,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F34" s="5">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -11011,7 +11070,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>24</v>
@@ -11021,7 +11080,7 @@
         <v>American</v>
       </c>
       <c r="F35" s="5">
-        <v>7729</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -11032,7 +11091,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>25</v>
@@ -11042,7 +11101,7 @@
         <v>United</v>
       </c>
       <c r="F36" s="5">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -11053,7 +11112,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>26</v>
@@ -11068,13 +11127,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4">
         <v>7</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="4">
-        <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>24</v>
@@ -11084,18 +11143,18 @@
         <v>American</v>
       </c>
       <c r="F38" s="5">
-        <v>7849</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4">
         <v>7</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="4">
-        <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>25</v>
@@ -11105,18 +11164,18 @@
         <v>United</v>
       </c>
       <c r="F39" s="5">
-        <v>103</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="4">
         <v>7</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="4">
-        <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>26</v>
@@ -11125,8 +11184,8 @@
         <f>VLOOKUP(D40,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">Southwest </v>
       </c>
-      <c r="F40" s="5">
-        <v>231</v>
+      <c r="F40" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -11137,7 +11196,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>24</v>
@@ -11147,7 +11206,7 @@
         <v>American</v>
       </c>
       <c r="F41" s="5">
-        <v>5766</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -11158,7 +11217,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>25</v>
@@ -11168,7 +11227,7 @@
         <v>United</v>
       </c>
       <c r="F42" s="5">
-        <v>7015</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -11179,7 +11238,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>26</v>
@@ -11200,7 +11259,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>24</v>
@@ -11210,7 +11269,7 @@
         <v>American</v>
       </c>
       <c r="F44" s="5">
-        <v>5881</v>
+        <v>5469</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -11221,7 +11280,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>25</v>
@@ -11231,7 +11290,7 @@
         <v>United</v>
       </c>
       <c r="F45" s="5">
-        <v>7160</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -11242,7 +11301,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>26</v>
@@ -11263,7 +11322,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>24</v>
@@ -11273,7 +11332,7 @@
         <v>American</v>
       </c>
       <c r="F47" s="5">
-        <v>5469</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -11284,7 +11343,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>25</v>
@@ -11294,7 +11353,7 @@
         <v>United</v>
       </c>
       <c r="F48" s="5">
-        <v>6916</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -11305,7 +11364,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>26</v>
@@ -11326,7 +11385,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>24</v>
@@ -11336,7 +11395,7 @@
         <v>American</v>
       </c>
       <c r="F50" s="5">
-        <v>5596</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -11347,7 +11406,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>25</v>
@@ -11357,7 +11416,7 @@
         <v>United</v>
       </c>
       <c r="F51" s="5">
-        <v>6968</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -11368,7 +11427,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>26</v>
@@ -11389,7 +11448,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>24</v>
@@ -11399,7 +11458,7 @@
         <v>American</v>
       </c>
       <c r="F53" s="5">
-        <v>5051</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -11410,7 +11469,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>25</v>
@@ -11420,7 +11479,7 @@
         <v>United</v>
       </c>
       <c r="F54" s="5">
-        <v>5824</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -11431,7 +11490,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>26</v>
@@ -11446,13 +11505,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>24</v>
@@ -11462,18 +11521,18 @@
         <v>American</v>
       </c>
       <c r="F56" s="5">
-        <v>5399</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>25</v>
@@ -11483,18 +11542,18 @@
         <v>United</v>
       </c>
       <c r="F57" s="5">
-        <v>5640</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>26</v>
@@ -11503,8 +11562,8 @@
         <f>VLOOKUP(D58,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">Southwest </v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>12</v>
+      <c r="F58" s="5">
+        <v>3635</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -11515,7 +11574,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>24</v>
@@ -11525,7 +11584,7 @@
         <v>American</v>
       </c>
       <c r="F59" s="5">
-        <v>3651</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -11536,7 +11595,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>25</v>
@@ -11546,7 +11605,7 @@
         <v>United</v>
       </c>
       <c r="F60" s="5">
-        <v>2495</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -11557,7 +11616,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>26</v>
@@ -11567,7 +11626,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F61" s="5">
-        <v>3635</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -11578,7 +11637,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>24</v>
@@ -11588,7 +11647,7 @@
         <v>American</v>
       </c>
       <c r="F62" s="5">
-        <v>3565</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -11599,7 +11658,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>25</v>
@@ -11609,7 +11668,7 @@
         <v>United</v>
       </c>
       <c r="F63" s="5">
-        <v>2574</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -11620,7 +11679,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>26</v>
@@ -11630,7 +11689,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F64" s="5">
-        <v>3710</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -11641,7 +11700,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>24</v>
@@ -11651,7 +11710,7 @@
         <v>American</v>
       </c>
       <c r="F65" s="5">
-        <v>3037</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -11662,7 +11721,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>25</v>
@@ -11672,7 +11731,7 @@
         <v>United</v>
       </c>
       <c r="F66" s="5">
-        <v>2184</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -11683,7 +11742,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>26</v>
@@ -11693,7 +11752,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F67" s="5">
-        <v>3443</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -11704,7 +11763,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>24</v>
@@ -11714,7 +11773,7 @@
         <v>American</v>
       </c>
       <c r="F68" s="5">
-        <v>3169</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -11725,7 +11784,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>25</v>
@@ -11735,7 +11794,7 @@
         <v>United</v>
       </c>
       <c r="F69" s="5">
-        <v>2306</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -11746,7 +11805,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>26</v>
@@ -11756,7 +11815,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F70" s="5">
-        <v>3644</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -11767,7 +11826,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>24</v>
@@ -11777,7 +11836,7 @@
         <v>American</v>
       </c>
       <c r="F71" s="5">
-        <v>2936</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -11788,7 +11847,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>25</v>
@@ -11798,7 +11857,7 @@
         <v>United</v>
       </c>
       <c r="F72" s="5">
-        <v>2197</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -11809,7 +11868,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>26</v>
@@ -11819,18 +11878,18 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F73" s="5">
-        <v>3495</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C74" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>24</v>
@@ -11840,18 +11899,18 @@
         <v>American</v>
       </c>
       <c r="F74" s="5">
-        <v>3246</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C75" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>25</v>
@@ -11861,18 +11920,18 @@
         <v>United</v>
       </c>
       <c r="F75" s="5">
-        <v>2358</v>
+        <v>745</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C76" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>26</v>
@@ -11882,7 +11941,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F76" s="5">
-        <v>3431</v>
+        <v>957</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -11893,7 +11952,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>24</v>
@@ -11903,7 +11962,7 @@
         <v>American</v>
       </c>
       <c r="F77" s="5">
-        <v>1862</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -11914,7 +11973,7 @@
         <v>13</v>
       </c>
       <c r="C78" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>25</v>
@@ -11924,7 +11983,7 @@
         <v>United</v>
       </c>
       <c r="F78" s="5">
-        <v>745</v>
+        <v>788</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -11935,7 +11994,7 @@
         <v>13</v>
       </c>
       <c r="C79" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>26</v>
@@ -11945,7 +12004,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F79" s="5">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -11956,7 +12015,7 @@
         <v>13</v>
       </c>
       <c r="C80" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>24</v>
@@ -11966,7 +12025,7 @@
         <v>American</v>
       </c>
       <c r="F80" s="5">
-        <v>1949</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -11977,7 +12036,7 @@
         <v>13</v>
       </c>
       <c r="C81" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>25</v>
@@ -11987,7 +12046,7 @@
         <v>United</v>
       </c>
       <c r="F81" s="5">
-        <v>788</v>
+        <v>772</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -11998,7 +12057,7 @@
         <v>13</v>
       </c>
       <c r="C82" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>26</v>
@@ -12008,7 +12067,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F82" s="5">
-        <v>949</v>
+        <v>899</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -12019,7 +12078,7 @@
         <v>13</v>
       </c>
       <c r="C83" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>24</v>
@@ -12029,7 +12088,7 @@
         <v>American</v>
       </c>
       <c r="F83" s="5">
-        <v>1866</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -12040,7 +12099,7 @@
         <v>13</v>
       </c>
       <c r="C84" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>25</v>
@@ -12050,7 +12109,7 @@
         <v>United</v>
       </c>
       <c r="F84" s="5">
-        <v>772</v>
+        <v>837</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -12061,7 +12120,7 @@
         <v>13</v>
       </c>
       <c r="C85" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>26</v>
@@ -12071,7 +12130,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F85" s="5">
-        <v>899</v>
+        <v>936</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -12082,7 +12141,7 @@
         <v>13</v>
       </c>
       <c r="C86" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>24</v>
@@ -12092,7 +12151,7 @@
         <v>American</v>
       </c>
       <c r="F86" s="5">
-        <v>2033</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -12103,7 +12162,7 @@
         <v>13</v>
       </c>
       <c r="C87" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>25</v>
@@ -12113,7 +12172,7 @@
         <v>United</v>
       </c>
       <c r="F87" s="5">
-        <v>837</v>
+        <v>770</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -12124,7 +12183,7 @@
         <v>13</v>
       </c>
       <c r="C88" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>26</v>
@@ -12134,7 +12193,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F88" s="5">
-        <v>936</v>
+        <v>910</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -12145,7 +12204,7 @@
         <v>13</v>
       </c>
       <c r="C89" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>24</v>
@@ -12155,7 +12214,7 @@
         <v>American</v>
       </c>
       <c r="F89" s="5">
-        <v>1767</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -12166,7 +12225,7 @@
         <v>13</v>
       </c>
       <c r="C90" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>25</v>
@@ -12176,7 +12235,7 @@
         <v>United</v>
       </c>
       <c r="F90" s="5">
-        <v>770</v>
+        <v>736</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -12187,7 +12246,7 @@
         <v>13</v>
       </c>
       <c r="C91" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>26</v>
@@ -12197,18 +12256,18 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F91" s="5">
-        <v>910</v>
+        <v>927</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C92" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>24</v>
@@ -12218,18 +12277,18 @@
         <v>American</v>
       </c>
       <c r="F92" s="5">
-        <v>1733</v>
+        <v>669</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C93" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>25</v>
@@ -12239,18 +12298,18 @@
         <v>United</v>
       </c>
       <c r="F93" s="5">
-        <v>736</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C94" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>26</v>
@@ -12260,7 +12319,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F94" s="5">
-        <v>927</v>
+        <v>634</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -12271,7 +12330,7 @@
         <v>14</v>
       </c>
       <c r="C95" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>24</v>
@@ -12281,7 +12340,7 @@
         <v>American</v>
       </c>
       <c r="F95" s="5">
-        <v>669</v>
+        <v>695</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -12292,7 +12351,7 @@
         <v>14</v>
       </c>
       <c r="C96" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>25</v>
@@ -12302,7 +12361,7 @@
         <v>United</v>
       </c>
       <c r="F96" s="5">
-        <v>4647</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -12313,7 +12372,7 @@
         <v>14</v>
       </c>
       <c r="C97" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>26</v>
@@ -12323,7 +12382,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F97" s="5">
-        <v>634</v>
+        <v>609</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -12334,7 +12393,7 @@
         <v>14</v>
       </c>
       <c r="C98" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>24</v>
@@ -12344,7 +12403,7 @@
         <v>American</v>
       </c>
       <c r="F98" s="5">
-        <v>695</v>
+        <v>609</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -12355,7 +12414,7 @@
         <v>14</v>
       </c>
       <c r="C99" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>25</v>
@@ -12365,7 +12424,7 @@
         <v>United</v>
       </c>
       <c r="F99" s="5">
-        <v>4775</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -12376,7 +12435,7 @@
         <v>14</v>
       </c>
       <c r="C100" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>26</v>
@@ -12386,7 +12445,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F100" s="5">
-        <v>609</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -12397,7 +12456,7 @@
         <v>14</v>
       </c>
       <c r="C101" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>24</v>
@@ -12407,7 +12466,7 @@
         <v>American</v>
       </c>
       <c r="F101" s="5">
-        <v>609</v>
+        <v>640</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -12418,7 +12477,7 @@
         <v>14</v>
       </c>
       <c r="C102" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>25</v>
@@ -12428,7 +12487,7 @@
         <v>United</v>
       </c>
       <c r="F102" s="5">
-        <v>4317</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -12439,7 +12498,7 @@
         <v>14</v>
       </c>
       <c r="C103" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>26</v>
@@ -12449,7 +12508,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F103" s="5">
-        <v>499</v>
+        <v>545</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -12460,7 +12519,7 @@
         <v>14</v>
       </c>
       <c r="C104" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>24</v>
@@ -12470,7 +12529,7 @@
         <v>American</v>
       </c>
       <c r="F104" s="5">
-        <v>640</v>
+        <v>592</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -12481,7 +12540,7 @@
         <v>14</v>
       </c>
       <c r="C105" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>25</v>
@@ -12491,7 +12550,7 @@
         <v>United</v>
       </c>
       <c r="F105" s="5">
-        <v>4654</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -12502,7 +12561,7 @@
         <v>14</v>
       </c>
       <c r="C106" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>26</v>
@@ -12512,7 +12571,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F106" s="5">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -12523,7 +12582,7 @@
         <v>14</v>
       </c>
       <c r="C107" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>24</v>
@@ -12533,7 +12592,7 @@
         <v>American</v>
       </c>
       <c r="F107" s="5">
-        <v>592</v>
+        <v>676</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -12544,7 +12603,7 @@
         <v>14</v>
       </c>
       <c r="C108" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>25</v>
@@ -12554,7 +12613,7 @@
         <v>United</v>
       </c>
       <c r="F108" s="5">
-        <v>4622</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -12565,7 +12624,7 @@
         <v>14</v>
       </c>
       <c r="C109" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>26</v>
@@ -12575,18 +12634,18 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F109" s="5">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C110" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>24</v>
@@ -12596,18 +12655,18 @@
         <v>American</v>
       </c>
       <c r="F110" s="5">
-        <v>676</v>
+        <v>978</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C111" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>25</v>
@@ -12617,18 +12676,18 @@
         <v>United</v>
       </c>
       <c r="F111" s="5">
-        <v>4772</v>
+        <v>990</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C112" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>26</v>
@@ -12638,7 +12697,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F112" s="5">
-        <v>530</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -12649,7 +12708,7 @@
         <v>15</v>
       </c>
       <c r="C113" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>24</v>
@@ -12659,7 +12718,7 @@
         <v>American</v>
       </c>
       <c r="F113" s="5">
-        <v>978</v>
+        <v>951</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -12670,7 +12729,7 @@
         <v>15</v>
       </c>
       <c r="C114" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>25</v>
@@ -12680,7 +12739,7 @@
         <v>United</v>
       </c>
       <c r="F114" s="5">
-        <v>990</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -12691,7 +12750,7 @@
         <v>15</v>
       </c>
       <c r="C115" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>26</v>
@@ -12701,7 +12760,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F115" s="5">
-        <v>1263</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -12712,7 +12771,7 @@
         <v>15</v>
       </c>
       <c r="C116" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>24</v>
@@ -12722,7 +12781,7 @@
         <v>American</v>
       </c>
       <c r="F116" s="5">
-        <v>951</v>
+        <v>762</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -12733,7 +12792,7 @@
         <v>15</v>
       </c>
       <c r="C117" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>25</v>
@@ -12743,7 +12802,7 @@
         <v>United</v>
       </c>
       <c r="F117" s="5">
-        <v>1068</v>
+        <v>894</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -12754,7 +12813,7 @@
         <v>15</v>
       </c>
       <c r="C118" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>26</v>
@@ -12764,7 +12823,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F118" s="5">
-        <v>1298</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -12775,7 +12834,7 @@
         <v>15</v>
       </c>
       <c r="C119" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>24</v>
@@ -12785,7 +12844,7 @@
         <v>American</v>
       </c>
       <c r="F119" s="5">
-        <v>762</v>
+        <v>733</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -12796,7 +12855,7 @@
         <v>15</v>
       </c>
       <c r="C120" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>25</v>
@@ -12806,7 +12865,7 @@
         <v>United</v>
       </c>
       <c r="F120" s="5">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -12817,7 +12876,7 @@
         <v>15</v>
       </c>
       <c r="C121" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>26</v>
@@ -12827,7 +12886,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F121" s="5">
-        <v>1065</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -12838,7 +12897,7 @@
         <v>15</v>
       </c>
       <c r="C122" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>24</v>
@@ -12848,7 +12907,7 @@
         <v>American</v>
       </c>
       <c r="F122" s="5">
-        <v>733</v>
+        <v>621</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -12859,7 +12918,7 @@
         <v>15</v>
       </c>
       <c r="C123" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>25</v>
@@ -12869,7 +12928,7 @@
         <v>United</v>
       </c>
       <c r="F123" s="5">
-        <v>892</v>
+        <v>826</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -12880,7 +12939,7 @@
         <v>15</v>
       </c>
       <c r="C124" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>26</v>
@@ -12890,7 +12949,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F124" s="5">
-        <v>1041</v>
+        <v>994</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -12901,7 +12960,7 @@
         <v>15</v>
       </c>
       <c r="C125" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>24</v>
@@ -12911,7 +12970,7 @@
         <v>American</v>
       </c>
       <c r="F125" s="5">
-        <v>621</v>
+        <v>713</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -12922,7 +12981,7 @@
         <v>15</v>
       </c>
       <c r="C126" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>25</v>
@@ -12932,7 +12991,7 @@
         <v>United</v>
       </c>
       <c r="F126" s="5">
-        <v>826</v>
+        <v>833</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -12943,7 +13002,7 @@
         <v>15</v>
       </c>
       <c r="C127" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>26</v>
@@ -12953,18 +13012,18 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F127" s="5">
-        <v>994</v>
+        <v>965</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C128" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>24</v>
@@ -12974,18 +13033,18 @@
         <v>American</v>
       </c>
       <c r="F128" s="5">
-        <v>713</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C129" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>25</v>
@@ -12995,18 +13054,18 @@
         <v>United</v>
       </c>
       <c r="F129" s="5">
-        <v>833</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C130" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>26</v>
@@ -13016,7 +13075,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F130" s="5">
-        <v>965</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -13027,7 +13086,7 @@
         <v>16</v>
       </c>
       <c r="C131" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>24</v>
@@ -13037,7 +13096,7 @@
         <v>American</v>
       </c>
       <c r="F131" s="5">
-        <v>2163</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -13048,7 +13107,7 @@
         <v>16</v>
       </c>
       <c r="C132" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>25</v>
@@ -13058,7 +13117,7 @@
         <v>United</v>
       </c>
       <c r="F132" s="5">
-        <v>417</v>
+        <v>464</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -13069,7 +13128,7 @@
         <v>16</v>
       </c>
       <c r="C133" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>26</v>
@@ -13079,7 +13138,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F133" s="5">
-        <v>1282</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -13090,7 +13149,7 @@
         <v>16</v>
       </c>
       <c r="C134" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>24</v>
@@ -13100,7 +13159,7 @@
         <v>American</v>
       </c>
       <c r="F134" s="5">
-        <v>2222</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -13111,7 +13170,7 @@
         <v>16</v>
       </c>
       <c r="C135" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>25</v>
@@ -13121,7 +13180,7 @@
         <v>United</v>
       </c>
       <c r="F135" s="5">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -13132,7 +13191,7 @@
         <v>16</v>
       </c>
       <c r="C136" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>26</v>
@@ -13142,7 +13201,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F136" s="5">
-        <v>1286</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -13153,7 +13212,7 @@
         <v>16</v>
       </c>
       <c r="C137" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>24</v>
@@ -13163,7 +13222,7 @@
         <v>American</v>
       </c>
       <c r="F137" s="5">
-        <v>2040</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -13174,7 +13233,7 @@
         <v>16</v>
       </c>
       <c r="C138" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>25</v>
@@ -13184,7 +13243,7 @@
         <v>United</v>
       </c>
       <c r="F138" s="5">
-        <v>450</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -13195,7 +13254,7 @@
         <v>16</v>
       </c>
       <c r="C139" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>26</v>
@@ -13205,7 +13264,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F139" s="5">
-        <v>1240</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -13216,7 +13275,7 @@
         <v>16</v>
       </c>
       <c r="C140" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>24</v>
@@ -13226,7 +13285,7 @@
         <v>American</v>
       </c>
       <c r="F140" s="5">
-        <v>2050</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -13237,7 +13296,7 @@
         <v>16</v>
       </c>
       <c r="C141" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>25</v>
@@ -13247,7 +13306,7 @@
         <v>United</v>
       </c>
       <c r="F141" s="5">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -13258,7 +13317,7 @@
         <v>16</v>
       </c>
       <c r="C142" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>26</v>
@@ -13268,7 +13327,7 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F142" s="5">
-        <v>1286</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -13279,7 +13338,7 @@
         <v>16</v>
       </c>
       <c r="C143" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>24</v>
@@ -13289,7 +13348,7 @@
         <v>American</v>
       </c>
       <c r="F143" s="5">
-        <v>1919</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -13300,7 +13359,7 @@
         <v>16</v>
       </c>
       <c r="C144" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>25</v>
@@ -13310,7 +13369,7 @@
         <v>United</v>
       </c>
       <c r="F144" s="5">
-        <v>499</v>
+        <v>403</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -13321,7 +13380,7 @@
         <v>16</v>
       </c>
       <c r="C145" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>26</v>
@@ -13331,76 +13390,13 @@
         <v xml:space="preserve">Southwest </v>
       </c>
       <c r="F145" s="5">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C146" s="4">
-        <v>12</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E146" s="3" t="str">
-        <f>VLOOKUP(D146,Sheet2!A:B,2,FALSE)</f>
-        <v>American</v>
-      </c>
-      <c r="F146" s="5">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C147" s="4">
-        <v>12</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E147" s="3" t="str">
-        <f>VLOOKUP(D147,Sheet2!A:B,2,FALSE)</f>
-        <v>United</v>
-      </c>
-      <c r="F147" s="5">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C148" s="4">
-        <v>12</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E148" s="3" t="str">
-        <f>VLOOKUP(D148,Sheet2!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Southwest </v>
-      </c>
-      <c r="F148" s="5">
         <v>1265</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:F148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F145" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Part 1 Data.xlsx
+++ b/Part 1 Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E38AE6-0B9E-4184-97DC-B5DE55ADDD7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E9570-F3D0-4E09-AA3E-A63FBA5EFD72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$145</definedName>
     <definedName name="Hackathon_Data_File_2__3" localSheetId="1">Sheet2!$A$1:$B$1707</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
@@ -21,9 +21,6 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3856" uniqueCount="3282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="3282">
   <si>
     <t>City</t>
   </si>
@@ -9969,7 +9966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -10001,6 +9998,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10311,8 +10309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10369,6 +10367,9 @@
       <c r="F2" s="5">
         <v>2298</v>
       </c>
+      <c r="G2">
+        <v>38217</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -10390,6 +10391,9 @@
       <c r="F3" s="5">
         <v>1140</v>
       </c>
+      <c r="G3">
+        <v>24925</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -10411,6 +10415,9 @@
       <c r="F4" s="5">
         <v>1191</v>
       </c>
+      <c r="G4">
+        <v>22814</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -10432,6 +10439,9 @@
       <c r="F5" s="5">
         <v>2378</v>
       </c>
+      <c r="G5">
+        <v>25785</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
@@ -10452,6 +10462,9 @@
       </c>
       <c r="F6" s="5">
         <v>1186</v>
+      </c>
+      <c r="G6">
+        <v>18116</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="8"/>
@@ -10479,6 +10492,9 @@
       <c r="F7" s="5">
         <v>1172</v>
       </c>
+      <c r="G7">
+        <v>17002</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="9"/>
       <c r="M7" s="2"/>
@@ -10505,6 +10521,9 @@
       <c r="F8" s="5">
         <v>2127</v>
       </c>
+      <c r="G8">
+        <v>19001</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -10526,6 +10545,9 @@
       <c r="F9" s="5">
         <v>1100</v>
       </c>
+      <c r="G9">
+        <v>13020</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -10547,6 +10569,9 @@
       <c r="F10" s="5">
         <v>1070</v>
       </c>
+      <c r="G10">
+        <v>12955</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -10568,6 +10593,9 @@
       <c r="F11" s="5">
         <v>2281</v>
       </c>
+      <c r="G11">
+        <v>22281</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -10589,6 +10617,9 @@
       <c r="F12" s="5">
         <v>1185</v>
       </c>
+      <c r="G12">
+        <v>17114</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -10610,6 +10641,9 @@
       <c r="F13" s="5">
         <v>1044</v>
       </c>
+      <c r="G13">
+        <v>11170</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -10631,6 +10665,9 @@
       <c r="F14" s="5">
         <v>2089</v>
       </c>
+      <c r="G14">
+        <v>13726</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -10652,6 +10689,9 @@
       <c r="F15" s="5">
         <v>1033</v>
       </c>
+      <c r="G15">
+        <v>7609</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -10673,8 +10713,11 @@
       <c r="F16" s="5">
         <v>994</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>8084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
@@ -10694,8 +10737,11 @@
       <c r="F17" s="5">
         <v>2019</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>20283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>6</v>
       </c>
@@ -10715,8 +10761,11 @@
       <c r="F18" s="5">
         <v>994</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>11899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>6</v>
       </c>
@@ -10736,8 +10785,11 @@
       <c r="F19" s="5">
         <v>948</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>10455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
@@ -10757,8 +10809,17 @@
       <c r="F20" s="5">
         <v>8276</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>151881</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>7</v>
       </c>
@@ -10778,8 +10839,17 @@
       <c r="F21" s="5">
         <v>166</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>2332</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>7</v>
       </c>
@@ -10799,8 +10869,17 @@
       <c r="F22" s="5">
         <v>236</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>4815</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>7</v>
       </c>
@@ -10820,8 +10899,11 @@
       <c r="F23" s="5">
         <v>8400</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>96007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>7</v>
       </c>
@@ -10841,8 +10923,11 @@
       <c r="F24" s="5">
         <v>174</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>7</v>
       </c>
@@ -10862,8 +10947,11 @@
       <c r="F25" s="5">
         <v>242</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>7</v>
       </c>
@@ -10883,8 +10971,11 @@
       <c r="F26" s="5">
         <v>8065</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>54854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
@@ -10904,8 +10995,11 @@
       <c r="F27" s="5">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>7</v>
       </c>
@@ -10925,8 +11019,11 @@
       <c r="F28" s="5">
         <v>232</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>7</v>
       </c>
@@ -10946,8 +11043,11 @@
       <c r="F29" s="5">
         <v>8349</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>68643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>7</v>
       </c>
@@ -10967,8 +11067,11 @@
       <c r="F30" s="5">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>7</v>
       </c>
@@ -10988,8 +11091,11 @@
       <c r="F31" s="5">
         <v>238</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>7</v>
       </c>
@@ -11009,8 +11115,11 @@
       <c r="F32" s="5">
         <v>7729</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>39659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>7</v>
       </c>
@@ -11030,8 +11139,11 @@
       <c r="F33" s="5">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>7</v>
       </c>
@@ -11051,8 +11163,11 @@
       <c r="F34" s="5">
         <v>231</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>7</v>
       </c>
@@ -11072,8 +11187,11 @@
       <c r="F35" s="5">
         <v>7849</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>63382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>7</v>
       </c>
@@ -11093,8 +11211,11 @@
       <c r="F36" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>7</v>
       </c>
@@ -11114,8 +11235,11 @@
       <c r="F37" s="5">
         <v>231</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>8</v>
       </c>
@@ -11135,8 +11259,11 @@
       <c r="F38" s="5">
         <v>5766</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>125296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>8</v>
       </c>
@@ -11156,8 +11283,11 @@
       <c r="F39" s="5">
         <v>7015</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>158859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>8</v>
       </c>
@@ -11177,8 +11307,11 @@
       <c r="F40" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>8</v>
       </c>
@@ -11198,8 +11331,11 @@
       <c r="F41" s="5">
         <v>5881</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>83869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>8</v>
       </c>
@@ -11219,8 +11355,11 @@
       <c r="F42" s="5">
         <v>7160</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>104779</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>8</v>
       </c>
@@ -11240,8 +11379,11 @@
       <c r="F43" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>8</v>
       </c>
@@ -11261,8 +11403,11 @@
       <c r="F44" s="5">
         <v>5469</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>50504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>8</v>
       </c>
@@ -11282,8 +11427,11 @@
       <c r="F45" s="5">
         <v>6916</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>51379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>8</v>
       </c>
@@ -11303,8 +11451,11 @@
       <c r="F46" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>8</v>
       </c>
@@ -11324,8 +11475,11 @@
       <c r="F47" s="5">
         <v>5596</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>53374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>8</v>
       </c>
@@ -11345,8 +11499,11 @@
       <c r="F48" s="5">
         <v>6968</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>64220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>8</v>
       </c>
@@ -11366,8 +11523,11 @@
       <c r="F49" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>8</v>
       </c>
@@ -11387,8 +11547,11 @@
       <c r="F50" s="5">
         <v>5051</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>37728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>8</v>
       </c>
@@ -11408,8 +11571,11 @@
       <c r="F51" s="5">
         <v>5824</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>40116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>8</v>
       </c>
@@ -11429,8 +11595,11 @@
       <c r="F52" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>8</v>
       </c>
@@ -11450,8 +11619,11 @@
       <c r="F53" s="5">
         <v>5399</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>71932</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>8</v>
       </c>
@@ -11471,8 +11643,11 @@
       <c r="F54" s="5">
         <v>5640</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>64947</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>8</v>
       </c>
@@ -11492,8 +11667,11 @@
       <c r="F55" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>9</v>
       </c>
@@ -11513,8 +11691,11 @@
       <c r="F56" s="5">
         <v>3651</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>60020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>9</v>
       </c>
@@ -11534,8 +11715,11 @@
       <c r="F57" s="5">
         <v>2495</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>24223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>9</v>
       </c>
@@ -11555,8 +11739,11 @@
       <c r="F58" s="5">
         <v>3635</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>57133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>9</v>
       </c>
@@ -11576,8 +11763,11 @@
       <c r="F59" s="5">
         <v>3565</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>46957</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>9</v>
       </c>
@@ -11597,8 +11787,11 @@
       <c r="F60" s="5">
         <v>2574</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>25341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>9</v>
       </c>
@@ -11618,8 +11811,11 @@
       <c r="F61" s="5">
         <v>3710</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>79989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>9</v>
       </c>
@@ -11639,8 +11835,11 @@
       <c r="F62" s="5">
         <v>3037</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>21951</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>9</v>
       </c>
@@ -11660,8 +11859,11 @@
       <c r="F63" s="5">
         <v>2184</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>11876</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>9</v>
       </c>
@@ -11681,8 +11883,11 @@
       <c r="F64" s="5">
         <v>3443</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>40984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>9</v>
       </c>
@@ -11702,8 +11907,11 @@
       <c r="F65" s="5">
         <v>3169</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>28001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>9</v>
       </c>
@@ -11723,8 +11931,11 @@
       <c r="F66" s="5">
         <v>2306</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>21024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>9</v>
       </c>
@@ -11744,8 +11955,11 @@
       <c r="F67" s="5">
         <v>3644</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>47446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>9</v>
       </c>
@@ -11765,8 +11979,11 @@
       <c r="F68" s="5">
         <v>2936</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>28347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>9</v>
       </c>
@@ -11786,8 +12003,11 @@
       <c r="F69" s="5">
         <v>2197</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>14737</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>9</v>
       </c>
@@ -11807,8 +12027,11 @@
       <c r="F70" s="5">
         <v>3495</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>36585</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>9</v>
       </c>
@@ -11828,8 +12051,11 @@
       <c r="F71" s="5">
         <v>3246</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>39717</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>9</v>
       </c>
@@ -11849,8 +12075,11 @@
       <c r="F72" s="5">
         <v>2358</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>16199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>9</v>
       </c>
@@ -11870,8 +12099,11 @@
       <c r="F73" s="5">
         <v>3431</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>33927</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>17</v>
       </c>
@@ -11891,8 +12123,11 @@
       <c r="F74" s="5">
         <v>1862</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>28003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>17</v>
       </c>
@@ -11912,8 +12147,11 @@
       <c r="F75" s="5">
         <v>745</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>16373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>17</v>
       </c>
@@ -11933,8 +12171,11 @@
       <c r="F76" s="5">
         <v>957</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>19264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>17</v>
       </c>
@@ -11954,8 +12195,11 @@
       <c r="F77" s="5">
         <v>1949</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>24952</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>17</v>
       </c>
@@ -11975,8 +12219,11 @@
       <c r="F78" s="5">
         <v>788</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>16298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>17</v>
       </c>
@@ -11996,8 +12243,11 @@
       <c r="F79" s="5">
         <v>949</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>14811</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>17</v>
       </c>
@@ -12017,8 +12267,11 @@
       <c r="F80" s="5">
         <v>1866</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>12864</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>17</v>
       </c>
@@ -12038,8 +12291,11 @@
       <c r="F81" s="5">
         <v>772</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>17</v>
       </c>
@@ -12059,8 +12315,11 @@
       <c r="F82" s="5">
         <v>899</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>7861</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>17</v>
       </c>
@@ -12080,8 +12339,11 @@
       <c r="F83" s="5">
         <v>2033</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>18877</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>17</v>
       </c>
@@ -12101,8 +12363,11 @@
       <c r="F84" s="5">
         <v>837</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>10661</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>17</v>
       </c>
@@ -12122,8 +12387,11 @@
       <c r="F85" s="5">
         <v>936</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>10475</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>17</v>
       </c>
@@ -12143,8 +12411,11 @@
       <c r="F86" s="5">
         <v>1767</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>9622</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>17</v>
       </c>
@@ -12164,8 +12435,11 @@
       <c r="F87" s="5">
         <v>770</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>17</v>
       </c>
@@ -12185,8 +12459,11 @@
       <c r="F88" s="5">
         <v>910</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>10408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>17</v>
       </c>
@@ -12206,8 +12483,11 @@
       <c r="F89" s="5">
         <v>1733</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>26367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>17</v>
       </c>
@@ -12227,8 +12507,11 @@
       <c r="F90" s="5">
         <v>736</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>6871</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>17</v>
       </c>
@@ -12248,8 +12531,11 @@
       <c r="F91" s="5">
         <v>927</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>18618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>18</v>
       </c>
@@ -12269,8 +12555,11 @@
       <c r="F92" s="5">
         <v>669</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>13382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>18</v>
       </c>
@@ -12290,8 +12579,11 @@
       <c r="F93" s="5">
         <v>4647</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>110983</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>18</v>
       </c>
@@ -12311,8 +12603,11 @@
       <c r="F94" s="5">
         <v>634</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>17915</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>18</v>
       </c>
@@ -12332,8 +12627,11 @@
       <c r="F95" s="5">
         <v>695</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>8544</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>18</v>
       </c>
@@ -12353,8 +12651,11 @@
       <c r="F96" s="5">
         <v>4775</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>90257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>18</v>
       </c>
@@ -12374,8 +12675,11 @@
       <c r="F97" s="5">
         <v>609</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>12841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>18</v>
       </c>
@@ -12395,8 +12699,11 @@
       <c r="F98" s="5">
         <v>609</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>18</v>
       </c>
@@ -12416,8 +12723,11 @@
       <c r="F99" s="5">
         <v>4317</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>48659</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>18</v>
       </c>
@@ -12437,8 +12747,11 @@
       <c r="F100" s="5">
         <v>499</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>8746</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>18</v>
       </c>
@@ -12458,8 +12771,11 @@
       <c r="F101" s="5">
         <v>640</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>18</v>
       </c>
@@ -12479,8 +12795,11 @@
       <c r="F102" s="5">
         <v>4654</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>52934</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>18</v>
       </c>
@@ -12500,8 +12819,11 @@
       <c r="F103" s="5">
         <v>545</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>18</v>
       </c>
@@ -12521,8 +12843,11 @@
       <c r="F104" s="5">
         <v>592</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>18</v>
       </c>
@@ -12542,8 +12867,11 @@
       <c r="F105" s="5">
         <v>4622</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>51907</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>18</v>
       </c>
@@ -12563,8 +12891,11 @@
       <c r="F106" s="5">
         <v>541</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>8629</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>18</v>
       </c>
@@ -12584,8 +12915,11 @@
       <c r="F107" s="5">
         <v>676</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>7507</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>18</v>
       </c>
@@ -12605,8 +12939,11 @@
       <c r="F108" s="5">
         <v>4772</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>69055</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>18</v>
       </c>
@@ -12626,8 +12963,11 @@
       <c r="F109" s="5">
         <v>530</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>11418</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>19</v>
       </c>
@@ -12647,8 +12987,11 @@
       <c r="F110" s="5">
         <v>978</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>10223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>19</v>
       </c>
@@ -12668,8 +13011,11 @@
       <c r="F111" s="5">
         <v>990</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>7787</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>19</v>
       </c>
@@ -12689,8 +13035,11 @@
       <c r="F112" s="5">
         <v>1263</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>13842</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>19</v>
       </c>
@@ -12710,8 +13059,11 @@
       <c r="F113" s="5">
         <v>951</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>8219</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>19</v>
       </c>
@@ -12731,8 +13083,11 @@
       <c r="F114" s="5">
         <v>1068</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>15018</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>19</v>
       </c>
@@ -12752,8 +13107,11 @@
       <c r="F115" s="5">
         <v>1298</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>21401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>19</v>
       </c>
@@ -12773,8 +13131,11 @@
       <c r="F116" s="5">
         <v>762</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>19</v>
       </c>
@@ -12794,8 +13155,11 @@
       <c r="F117" s="5">
         <v>894</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>19</v>
       </c>
@@ -12815,8 +13179,11 @@
       <c r="F118" s="5">
         <v>1065</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>10504</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>19</v>
       </c>
@@ -12836,8 +13203,11 @@
       <c r="F119" s="5">
         <v>733</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>19</v>
       </c>
@@ -12857,8 +13227,11 @@
       <c r="F120" s="5">
         <v>892</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>9497</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>19</v>
       </c>
@@ -12878,8 +13251,11 @@
       <c r="F121" s="5">
         <v>1041</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>9656</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>19</v>
       </c>
@@ -12899,8 +13275,11 @@
       <c r="F122" s="5">
         <v>621</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>9349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>19</v>
       </c>
@@ -12920,8 +13299,11 @@
       <c r="F123" s="5">
         <v>826</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>10194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>19</v>
       </c>
@@ -12941,8 +13323,11 @@
       <c r="F124" s="5">
         <v>994</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <v>11820</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>19</v>
       </c>
@@ -12962,8 +13347,11 @@
       <c r="F125" s="5">
         <v>713</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>6714</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>19</v>
       </c>
@@ -12983,8 +13371,11 @@
       <c r="F126" s="5">
         <v>833</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>19</v>
       </c>
@@ -13004,8 +13395,11 @@
       <c r="F127" s="5">
         <v>965</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>13616</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>20</v>
       </c>
@@ -13025,8 +13419,11 @@
       <c r="F128" s="5">
         <v>2163</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>39012</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>20</v>
       </c>
@@ -13046,8 +13443,11 @@
       <c r="F129" s="5">
         <v>417</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>7459</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>20</v>
       </c>
@@ -13067,8 +13467,11 @@
       <c r="F130" s="5">
         <v>1282</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>21232</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>20</v>
       </c>
@@ -13088,8 +13491,11 @@
       <c r="F131" s="5">
         <v>2222</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>27035</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>20</v>
       </c>
@@ -13109,8 +13515,11 @@
       <c r="F132" s="5">
         <v>464</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>20</v>
       </c>
@@ -13130,8 +13539,11 @@
       <c r="F133" s="5">
         <v>1286</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>16905</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>20</v>
       </c>
@@ -13151,8 +13563,11 @@
       <c r="F134" s="5">
         <v>2040</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>16647</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>20</v>
       </c>
@@ -13172,8 +13587,11 @@
       <c r="F135" s="5">
         <v>450</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>20</v>
       </c>
@@ -13193,8 +13611,11 @@
       <c r="F136" s="5">
         <v>1240</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>11698</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>20</v>
       </c>
@@ -13214,8 +13635,11 @@
       <c r="F137" s="5">
         <v>2050</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>14764</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>20</v>
       </c>
@@ -13235,8 +13659,11 @@
       <c r="F138" s="5">
         <v>490</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>20</v>
       </c>
@@ -13256,8 +13683,11 @@
       <c r="F139" s="5">
         <v>1286</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>13712</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>20</v>
       </c>
@@ -13277,8 +13707,11 @@
       <c r="F140" s="5">
         <v>1919</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>14459</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>20</v>
       </c>
@@ -13298,8 +13731,11 @@
       <c r="F141" s="5">
         <v>499</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>20</v>
       </c>
@@ -13319,8 +13755,11 @@
       <c r="F142" s="5">
         <v>1227</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>12025</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>20</v>
       </c>
@@ -13340,8 +13779,11 @@
       <c r="F143" s="5">
         <v>1909</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>18268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>20</v>
       </c>
@@ -13361,8 +13803,11 @@
       <c r="F144" s="5">
         <v>403</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>20</v>
       </c>
@@ -13382,8 +13827,13 @@
       <c r="F145" s="5">
         <v>1265</v>
       </c>
+      <c r="G145">
+        <v>14080</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G145" xr:uid="{86AD0A80-12C8-4902-A4F7-E008F189B3E5}"/>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Part 1 Data.xlsx
+++ b/Part 1 Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E9570-F3D0-4E09-AA3E-A63FBA5EFD72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC7753-7788-4B58-A841-73A8BB1453A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10307,10 +10307,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H143" sqref="H143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10321,7 +10322,7 @@
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -10419,7 +10420,7 @@
         <v>22814</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
@@ -10443,7 +10444,7 @@
         <v>25785</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -10472,7 +10473,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -10501,7 +10502,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
@@ -10549,7 +10550,7 @@
         <v>13020</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -10573,7 +10574,7 @@
         <v>12955</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>22281</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>17114</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
@@ -10645,7 +10646,7 @@
         <v>11170</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
@@ -10669,7 +10670,7 @@
         <v>13726</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
@@ -10693,7 +10694,7 @@
         <v>7609</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -10717,7 +10718,7 @@
         <v>8084</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
@@ -10741,7 +10742,7 @@
         <v>20283</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>6</v>
       </c>
@@ -10765,7 +10766,7 @@
         <v>11899</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>6</v>
       </c>
@@ -10879,7 +10880,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>7</v>
       </c>
@@ -10903,7 +10904,7 @@
         <v>96007</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>7</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>7</v>
       </c>
@@ -10951,7 +10952,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>7</v>
       </c>
@@ -10975,7 +10976,7 @@
         <v>54854</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
@@ -10999,7 +11000,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>7</v>
       </c>
@@ -11023,7 +11024,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>7</v>
       </c>
@@ -11047,7 +11048,7 @@
         <v>68643</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>7</v>
       </c>
@@ -11071,7 +11072,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>7</v>
       </c>
@@ -11095,7 +11096,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>7</v>
       </c>
@@ -11119,7 +11120,7 @@
         <v>39659</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>7</v>
       </c>
@@ -11143,7 +11144,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>7</v>
       </c>
@@ -11167,7 +11168,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>7</v>
       </c>
@@ -11191,7 +11192,7 @@
         <v>63382</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>7</v>
       </c>
@@ -11215,7 +11216,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>7</v>
       </c>
@@ -11311,7 +11312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>8</v>
       </c>
@@ -11335,7 +11336,7 @@
         <v>83869</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>8</v>
       </c>
@@ -11359,7 +11360,7 @@
         <v>104779</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>8</v>
       </c>
@@ -11383,7 +11384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>8</v>
       </c>
@@ -11407,7 +11408,7 @@
         <v>50504</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>8</v>
       </c>
@@ -11431,7 +11432,7 @@
         <v>51379</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>8</v>
       </c>
@@ -11455,7 +11456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>8</v>
       </c>
@@ -11479,7 +11480,7 @@
         <v>53374</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>8</v>
       </c>
@@ -11503,7 +11504,7 @@
         <v>64220</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>8</v>
       </c>
@@ -11527,7 +11528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>8</v>
       </c>
@@ -11551,7 +11552,7 @@
         <v>37728</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>8</v>
       </c>
@@ -11575,7 +11576,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>8</v>
       </c>
@@ -11599,7 +11600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>8</v>
       </c>
@@ -11623,7 +11624,7 @@
         <v>71932</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>8</v>
       </c>
@@ -11647,7 +11648,7 @@
         <v>64947</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>8</v>
       </c>
@@ -11743,7 +11744,7 @@
         <v>57133</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>9</v>
       </c>
@@ -11767,7 +11768,7 @@
         <v>46957</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>9</v>
       </c>
@@ -11791,7 +11792,7 @@
         <v>25341</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>9</v>
       </c>
@@ -11815,7 +11816,7 @@
         <v>79989</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>9</v>
       </c>
@@ -11839,7 +11840,7 @@
         <v>21951</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>9</v>
       </c>
@@ -11863,7 +11864,7 @@
         <v>11876</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>9</v>
       </c>
@@ -11887,7 +11888,7 @@
         <v>40984</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>9</v>
       </c>
@@ -11911,7 +11912,7 @@
         <v>28001</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>9</v>
       </c>
@@ -11935,7 +11936,7 @@
         <v>21024</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>9</v>
       </c>
@@ -11959,7 +11960,7 @@
         <v>47446</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>9</v>
       </c>
@@ -11983,7 +11984,7 @@
         <v>28347</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>9</v>
       </c>
@@ -12007,7 +12008,7 @@
         <v>14737</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>9</v>
       </c>
@@ -12031,7 +12032,7 @@
         <v>36585</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>9</v>
       </c>
@@ -12055,7 +12056,7 @@
         <v>39717</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>9</v>
       </c>
@@ -12079,7 +12080,7 @@
         <v>16199</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>9</v>
       </c>
@@ -12175,7 +12176,7 @@
         <v>19264</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>17</v>
       </c>
@@ -12199,7 +12200,7 @@
         <v>24952</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>17</v>
       </c>
@@ -12223,7 +12224,7 @@
         <v>16298</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>17</v>
       </c>
@@ -12247,7 +12248,7 @@
         <v>14811</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>17</v>
       </c>
@@ -12271,7 +12272,7 @@
         <v>12864</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>17</v>
       </c>
@@ -12295,7 +12296,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>17</v>
       </c>
@@ -12319,7 +12320,7 @@
         <v>7861</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>17</v>
       </c>
@@ -12343,7 +12344,7 @@
         <v>18877</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>17</v>
       </c>
@@ -12367,7 +12368,7 @@
         <v>10661</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>17</v>
       </c>
@@ -12391,7 +12392,7 @@
         <v>10475</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>17</v>
       </c>
@@ -12415,7 +12416,7 @@
         <v>9622</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>17</v>
       </c>
@@ -12439,7 +12440,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>17</v>
       </c>
@@ -12463,7 +12464,7 @@
         <v>10408</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>17</v>
       </c>
@@ -12487,7 +12488,7 @@
         <v>26367</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>17</v>
       </c>
@@ -12511,7 +12512,7 @@
         <v>6871</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>17</v>
       </c>
@@ -12607,7 +12608,7 @@
         <v>17915</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>18</v>
       </c>
@@ -12631,7 +12632,7 @@
         <v>8544</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>18</v>
       </c>
@@ -12655,7 +12656,7 @@
         <v>90257</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>18</v>
       </c>
@@ -12679,7 +12680,7 @@
         <v>12841</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>18</v>
       </c>
@@ -12703,7 +12704,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>18</v>
       </c>
@@ -12727,7 +12728,7 @@
         <v>48659</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>18</v>
       </c>
@@ -12751,7 +12752,7 @@
         <v>8746</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>18</v>
       </c>
@@ -12775,7 +12776,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>18</v>
       </c>
@@ -12799,7 +12800,7 @@
         <v>52934</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>18</v>
       </c>
@@ -12823,7 +12824,7 @@
         <v>6201</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>18</v>
       </c>
@@ -12847,7 +12848,7 @@
         <v>4642</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>18</v>
       </c>
@@ -12871,7 +12872,7 @@
         <v>51907</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>18</v>
       </c>
@@ -12895,7 +12896,7 @@
         <v>8629</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>18</v>
       </c>
@@ -12919,7 +12920,7 @@
         <v>7507</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>18</v>
       </c>
@@ -12943,7 +12944,7 @@
         <v>69055</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>18</v>
       </c>
@@ -13039,7 +13040,7 @@
         <v>13842</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>19</v>
       </c>
@@ -13063,7 +13064,7 @@
         <v>8219</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>19</v>
       </c>
@@ -13087,7 +13088,7 @@
         <v>15018</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>19</v>
       </c>
@@ -13111,7 +13112,7 @@
         <v>21401</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>19</v>
       </c>
@@ -13135,7 +13136,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>19</v>
       </c>
@@ -13159,7 +13160,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>19</v>
       </c>
@@ -13183,7 +13184,7 @@
         <v>10504</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>19</v>
       </c>
@@ -13207,7 +13208,7 @@
         <v>5518</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>19</v>
       </c>
@@ -13231,7 +13232,7 @@
         <v>9497</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>19</v>
       </c>
@@ -13255,7 +13256,7 @@
         <v>9656</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>19</v>
       </c>
@@ -13279,7 +13280,7 @@
         <v>9349</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>19</v>
       </c>
@@ -13303,7 +13304,7 @@
         <v>10194</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>19</v>
       </c>
@@ -13327,7 +13328,7 @@
         <v>11820</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>19</v>
       </c>
@@ -13351,7 +13352,7 @@
         <v>6714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>19</v>
       </c>
@@ -13375,7 +13376,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>19</v>
       </c>
@@ -13471,7 +13472,7 @@
         <v>21232</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>20</v>
       </c>
@@ -13495,7 +13496,7 @@
         <v>27035</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>20</v>
       </c>
@@ -13519,7 +13520,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>20</v>
       </c>
@@ -13543,7 +13544,7 @@
         <v>16905</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>20</v>
       </c>
@@ -13567,7 +13568,7 @@
         <v>16647</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>20</v>
       </c>
@@ -13591,7 +13592,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>20</v>
       </c>
@@ -13615,7 +13616,7 @@
         <v>11698</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>20</v>
       </c>
@@ -13639,7 +13640,7 @@
         <v>14764</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>20</v>
       </c>
@@ -13663,7 +13664,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>20</v>
       </c>
@@ -13687,7 +13688,7 @@
         <v>13712</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>20</v>
       </c>
@@ -13711,7 +13712,7 @@
         <v>14459</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>20</v>
       </c>
@@ -13735,7 +13736,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>20</v>
       </c>
@@ -13759,7 +13760,7 @@
         <v>12025</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>20</v>
       </c>
@@ -13783,7 +13784,7 @@
         <v>18268</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>20</v>
       </c>
@@ -13807,7 +13808,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>20</v>
       </c>
@@ -13832,7 +13833,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G145" xr:uid="{86AD0A80-12C8-4902-A4F7-E008F189B3E5}"/>
+  <autoFilter ref="A1:G145" xr:uid="{86AD0A80-12C8-4902-A4F7-E008F189B3E5}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/Part 1 Data.xlsx
+++ b/Part 1 Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC7753-7788-4B58-A841-73A8BB1453A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A377F2-A58E-4FC5-BB3A-F6DCCF388DD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="3282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="3288">
   <si>
     <t>City</t>
   </si>
@@ -9886,6 +9886,24 @@
   </si>
   <si>
     <t>Total Delay (MIN)</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sept</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -10307,11 +10325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10319,8 +10336,8 @@
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -10355,8 +10372,8 @@
       <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
-        <v>7</v>
+      <c r="C2" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
@@ -10379,8 +10396,8 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <v>7</v>
+      <c r="C3" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
@@ -10403,8 +10420,8 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
-        <v>7</v>
+      <c r="C4" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -10420,15 +10437,15 @@
         <v>22814</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
-        <v>8</v>
+      <c r="C5" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>22</v>
@@ -10444,15 +10461,15 @@
         <v>25785</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
-        <v>8</v>
+      <c r="C6" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -10473,15 +10490,15 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
-        <v>8</v>
+      <c r="C7" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>24</v>
@@ -10502,15 +10519,15 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
-        <v>9</v>
+      <c r="C8" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
@@ -10526,15 +10543,15 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
-        <v>9</v>
+      <c r="C9" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
@@ -10550,15 +10567,15 @@
         <v>13020</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
-        <v>9</v>
+      <c r="C10" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
@@ -10574,15 +10591,15 @@
         <v>12955</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
-        <v>10</v>
+      <c r="C11" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>22</v>
@@ -10598,15 +10615,15 @@
         <v>22281</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="4">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
@@ -10622,15 +10639,15 @@
         <v>17114</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="4">
-        <v>10</v>
+      <c r="C13" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>24</v>
@@ -10646,15 +10663,15 @@
         <v>11170</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="4">
-        <v>11</v>
+      <c r="C14" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>22</v>
@@ -10670,15 +10687,15 @@
         <v>13726</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
-        <v>11</v>
+      <c r="C15" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>23</v>
@@ -10694,15 +10711,15 @@
         <v>7609</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4">
-        <v>11</v>
+      <c r="C16" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>24</v>
@@ -10718,15 +10735,15 @@
         <v>8084</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
-        <v>12</v>
+      <c r="C17" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>22</v>
@@ -10742,15 +10759,15 @@
         <v>20283</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="4">
-        <v>12</v>
+      <c r="C18" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
@@ -10766,15 +10783,15 @@
         <v>11899</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
-        <v>12</v>
+      <c r="C19" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>24</v>
@@ -10797,8 +10814,8 @@
       <c r="B20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="4">
-        <v>7</v>
+      <c r="C20" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>22</v>
@@ -10827,8 +10844,8 @@
       <c r="B21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="4">
-        <v>7</v>
+      <c r="C21" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
@@ -10857,8 +10874,8 @@
       <c r="B22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="4">
-        <v>7</v>
+      <c r="C22" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>24</v>
@@ -10880,15 +10897,15 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="4">
-        <v>8</v>
+      <c r="C23" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>22</v>
@@ -10904,15 +10921,15 @@
         <v>96007</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="4">
-        <v>8</v>
+      <c r="C24" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
@@ -10928,15 +10945,15 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="4">
-        <v>8</v>
+      <c r="C25" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>24</v>
@@ -10952,15 +10969,15 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="4">
-        <v>9</v>
+      <c r="C26" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>22</v>
@@ -10976,15 +10993,15 @@
         <v>54854</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="4">
-        <v>9</v>
+      <c r="C27" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
@@ -11000,15 +11017,15 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="4">
-        <v>9</v>
+      <c r="C28" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>24</v>
@@ -11024,15 +11041,15 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="4">
-        <v>10</v>
+      <c r="C29" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>22</v>
@@ -11048,15 +11065,15 @@
         <v>68643</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="4">
-        <v>10</v>
+      <c r="C30" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
@@ -11072,15 +11089,15 @@
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="4">
-        <v>10</v>
+      <c r="C31" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>24</v>
@@ -11096,15 +11113,15 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="4">
-        <v>11</v>
+      <c r="C32" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>22</v>
@@ -11120,15 +11137,15 @@
         <v>39659</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="4">
-        <v>11</v>
+      <c r="C33" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
@@ -11144,15 +11161,15 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="4">
-        <v>11</v>
+      <c r="C34" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>24</v>
@@ -11168,15 +11185,15 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="4">
-        <v>12</v>
+      <c r="C35" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>22</v>
@@ -11192,15 +11209,15 @@
         <v>63382</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="4">
-        <v>12</v>
+      <c r="C36" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
@@ -11216,15 +11233,15 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="4">
-        <v>12</v>
+      <c r="C37" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>24</v>
@@ -11247,8 +11264,8 @@
       <c r="B38" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="4">
-        <v>7</v>
+      <c r="C38" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>22</v>
@@ -11271,8 +11288,8 @@
       <c r="B39" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="4">
-        <v>7</v>
+      <c r="C39" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
@@ -11295,8 +11312,8 @@
       <c r="B40" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="4">
-        <v>7</v>
+      <c r="C40" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>24</v>
@@ -11312,15 +11329,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="4">
-        <v>8</v>
+      <c r="C41" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>22</v>
@@ -11336,15 +11353,15 @@
         <v>83869</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="4">
-        <v>8</v>
+      <c r="C42" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>23</v>
@@ -11360,15 +11377,15 @@
         <v>104779</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="4">
-        <v>8</v>
+      <c r="C43" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>24</v>
@@ -11384,15 +11401,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="4">
-        <v>9</v>
+      <c r="C44" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>22</v>
@@ -11408,15 +11425,15 @@
         <v>50504</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="4">
-        <v>9</v>
+      <c r="C45" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>23</v>
@@ -11432,15 +11449,15 @@
         <v>51379</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="4">
-        <v>9</v>
+      <c r="C46" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>24</v>
@@ -11456,15 +11473,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="4">
-        <v>10</v>
+      <c r="C47" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>22</v>
@@ -11480,15 +11497,15 @@
         <v>53374</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="4">
-        <v>10</v>
+      <c r="C48" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>23</v>
@@ -11504,15 +11521,15 @@
         <v>64220</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="4">
-        <v>10</v>
+      <c r="C49" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>24</v>
@@ -11528,15 +11545,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="4">
-        <v>11</v>
+      <c r="C50" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>22</v>
@@ -11552,15 +11569,15 @@
         <v>37728</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="4">
-        <v>11</v>
+      <c r="C51" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>23</v>
@@ -11576,15 +11593,15 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="4">
-        <v>11</v>
+      <c r="C52" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>24</v>
@@ -11600,15 +11617,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="4">
-        <v>12</v>
+      <c r="C53" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>22</v>
@@ -11624,15 +11641,15 @@
         <v>71932</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="4">
-        <v>12</v>
+      <c r="C54" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>23</v>
@@ -11648,15 +11665,15 @@
         <v>64947</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="4">
-        <v>12</v>
+      <c r="C55" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>24</v>
@@ -11679,8 +11696,8 @@
       <c r="B56" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="4">
-        <v>7</v>
+      <c r="C56" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>22</v>
@@ -11703,8 +11720,8 @@
       <c r="B57" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="4">
-        <v>7</v>
+      <c r="C57" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>23</v>
@@ -11727,8 +11744,8 @@
       <c r="B58" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="4">
-        <v>7</v>
+      <c r="C58" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>24</v>
@@ -11744,15 +11761,15 @@
         <v>57133</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="4">
-        <v>8</v>
+      <c r="C59" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>22</v>
@@ -11768,15 +11785,15 @@
         <v>46957</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="4">
-        <v>8</v>
+      <c r="C60" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>23</v>
@@ -11792,15 +11809,15 @@
         <v>25341</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="4">
-        <v>8</v>
+      <c r="C61" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>24</v>
@@ -11816,15 +11833,15 @@
         <v>79989</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="4">
-        <v>9</v>
+      <c r="C62" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>22</v>
@@ -11840,15 +11857,15 @@
         <v>21951</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="4">
-        <v>9</v>
+      <c r="C63" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>23</v>
@@ -11864,15 +11881,15 @@
         <v>11876</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="4">
-        <v>9</v>
+      <c r="C64" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>24</v>
@@ -11888,15 +11905,15 @@
         <v>40984</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="4">
-        <v>10</v>
+      <c r="C65" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>22</v>
@@ -11912,15 +11929,15 @@
         <v>28001</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="4">
-        <v>10</v>
+      <c r="C66" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>23</v>
@@ -11936,15 +11953,15 @@
         <v>21024</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="4">
-        <v>10</v>
+      <c r="C67" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>24</v>
@@ -11960,15 +11977,15 @@
         <v>47446</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="4">
-        <v>11</v>
+      <c r="C68" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>22</v>
@@ -11984,15 +12001,15 @@
         <v>28347</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="4">
-        <v>11</v>
+      <c r="C69" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>23</v>
@@ -12008,15 +12025,15 @@
         <v>14737</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="4">
-        <v>11</v>
+      <c r="C70" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>24</v>
@@ -12032,15 +12049,15 @@
         <v>36585</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="4">
-        <v>12</v>
+      <c r="C71" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>22</v>
@@ -12056,15 +12073,15 @@
         <v>39717</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="4">
-        <v>12</v>
+      <c r="C72" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>23</v>
@@ -12080,15 +12097,15 @@
         <v>16199</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="4">
-        <v>12</v>
+      <c r="C73" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>24</v>
@@ -12111,8 +12128,8 @@
       <c r="B74" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="4">
-        <v>7</v>
+      <c r="C74" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>22</v>
@@ -12135,8 +12152,8 @@
       <c r="B75" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="4">
-        <v>7</v>
+      <c r="C75" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>23</v>
@@ -12159,8 +12176,8 @@
       <c r="B76" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="4">
-        <v>7</v>
+      <c r="C76" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>24</v>
@@ -12176,15 +12193,15 @@
         <v>19264</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="4">
-        <v>8</v>
+      <c r="C77" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>22</v>
@@ -12200,15 +12217,15 @@
         <v>24952</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="4">
-        <v>8</v>
+      <c r="C78" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>23</v>
@@ -12224,15 +12241,15 @@
         <v>16298</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="4">
-        <v>8</v>
+      <c r="C79" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>24</v>
@@ -12248,15 +12265,15 @@
         <v>14811</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="4">
-        <v>9</v>
+      <c r="C80" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>22</v>
@@ -12272,15 +12289,15 @@
         <v>12864</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="4">
-        <v>9</v>
+      <c r="C81" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>23</v>
@@ -12296,15 +12313,15 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="4">
-        <v>9</v>
+      <c r="C82" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>24</v>
@@ -12320,15 +12337,15 @@
         <v>7861</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="4">
-        <v>10</v>
+      <c r="C83" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>22</v>
@@ -12344,15 +12361,15 @@
         <v>18877</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="4">
-        <v>10</v>
+      <c r="C84" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>23</v>
@@ -12368,15 +12385,15 @@
         <v>10661</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="4">
-        <v>10</v>
+      <c r="C85" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>24</v>
@@ -12392,15 +12409,15 @@
         <v>10475</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="4">
-        <v>11</v>
+      <c r="C86" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>22</v>
@@ -12416,15 +12433,15 @@
         <v>9622</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="4">
-        <v>11</v>
+      <c r="C87" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>23</v>
@@ -12440,15 +12457,15 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="4">
-        <v>11</v>
+      <c r="C88" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>24</v>
@@ -12464,15 +12481,15 @@
         <v>10408</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="4">
-        <v>12</v>
+      <c r="C89" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>22</v>
@@ -12488,15 +12505,15 @@
         <v>26367</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="4">
-        <v>12</v>
+      <c r="C90" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>23</v>
@@ -12512,15 +12529,15 @@
         <v>6871</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C91" s="4">
-        <v>12</v>
+      <c r="C91" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>24</v>
@@ -12543,8 +12560,8 @@
       <c r="B92" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="4">
-        <v>7</v>
+      <c r="C92" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>22</v>
@@ -12567,8 +12584,8 @@
       <c r="B93" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="4">
-        <v>7</v>
+      <c r="C93" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>23</v>
@@ -12591,8 +12608,8 @@
       <c r="B94" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="4">
-        <v>7</v>
+      <c r="C94" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>24</v>
@@ -12608,15 +12625,15 @@
         <v>17915</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="4">
-        <v>8</v>
+      <c r="C95" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>22</v>
@@ -12632,15 +12649,15 @@
         <v>8544</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="4">
-        <v>8</v>
+      <c r="C96" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>23</v>
@@ -12656,15 +12673,15 @@
         <v>90257</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="4">
-        <v>8</v>
+      <c r="C97" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>24</v>
@@ -12680,15 +12697,15 @@
         <v>12841</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B98" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="4">
-        <v>9</v>
+      <c r="C98" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>22</v>
@@ -12704,15 +12721,15 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="4">
-        <v>9</v>
+      <c r="C99" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>23</v>
@@ -12728,15 +12745,15 @@
         <v>48659</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="4">
-        <v>9</v>
+      <c r="C100" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>24</v>
@@ -12752,15 +12769,15 @@
         <v>8746</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="4">
-        <v>10</v>
+      <c r="C101" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>22</v>
@@ -12776,15 +12793,15 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="4">
-        <v>10</v>
+      <c r="C102" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>23</v>
@@ -12800,15 +12817,15 @@
         <v>52934</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="4">
-        <v>10</v>
+      <c r="C103" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>24</v>
@@ -12824,15 +12841,15 @@
         <v>6201</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C104" s="4">
-        <v>11</v>
+      <c r="C104" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>22</v>
@@ -12848,15 +12865,15 @@
         <v>4642</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B105" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C105" s="4">
-        <v>11</v>
+      <c r="C105" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>23</v>
@@ -12872,15 +12889,15 @@
         <v>51907</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="4">
-        <v>11</v>
+      <c r="C106" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>24</v>
@@ -12896,15 +12913,15 @@
         <v>8629</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B107" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="4">
-        <v>12</v>
+      <c r="C107" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>22</v>
@@ -12920,15 +12937,15 @@
         <v>7507</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="4">
-        <v>12</v>
+      <c r="C108" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>23</v>
@@ -12944,15 +12961,15 @@
         <v>69055</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B109" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C109" s="4">
-        <v>12</v>
+      <c r="C109" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>24</v>
@@ -12975,8 +12992,8 @@
       <c r="B110" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C110" s="4">
-        <v>7</v>
+      <c r="C110" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>22</v>
@@ -12999,8 +13016,8 @@
       <c r="B111" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C111" s="4">
-        <v>7</v>
+      <c r="C111" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>23</v>
@@ -13023,8 +13040,8 @@
       <c r="B112" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C112" s="4">
-        <v>7</v>
+      <c r="C112" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>24</v>
@@ -13040,15 +13057,15 @@
         <v>13842</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C113" s="4">
-        <v>8</v>
+      <c r="C113" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>22</v>
@@ -13064,15 +13081,15 @@
         <v>8219</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C114" s="4">
-        <v>8</v>
+      <c r="C114" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>23</v>
@@ -13088,15 +13105,15 @@
         <v>15018</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C115" s="4">
-        <v>8</v>
+      <c r="C115" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>24</v>
@@ -13112,15 +13129,15 @@
         <v>21401</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C116" s="4">
-        <v>9</v>
+      <c r="C116" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>22</v>
@@ -13136,15 +13153,15 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="4">
-        <v>9</v>
+      <c r="C117" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>23</v>
@@ -13160,15 +13177,15 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C118" s="4">
-        <v>9</v>
+      <c r="C118" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>24</v>
@@ -13184,15 +13201,15 @@
         <v>10504</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="4">
-        <v>10</v>
+      <c r="C119" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>22</v>
@@ -13208,15 +13225,15 @@
         <v>5518</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C120" s="4">
-        <v>10</v>
+      <c r="C120" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>23</v>
@@ -13232,15 +13249,15 @@
         <v>9497</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C121" s="4">
-        <v>10</v>
+      <c r="C121" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>24</v>
@@ -13256,15 +13273,15 @@
         <v>9656</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C122" s="4">
-        <v>11</v>
+      <c r="C122" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>22</v>
@@ -13280,15 +13297,15 @@
         <v>9349</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="4">
-        <v>11</v>
+      <c r="C123" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>23</v>
@@ -13304,15 +13321,15 @@
         <v>10194</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C124" s="4">
-        <v>11</v>
+      <c r="C124" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>24</v>
@@ -13328,15 +13345,15 @@
         <v>11820</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="4">
-        <v>12</v>
+      <c r="C125" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>22</v>
@@ -13352,15 +13369,15 @@
         <v>6714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C126" s="4">
-        <v>12</v>
+      <c r="C126" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>23</v>
@@ -13376,15 +13393,15 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C127" s="4">
-        <v>12</v>
+      <c r="C127" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>24</v>
@@ -13407,8 +13424,8 @@
       <c r="B128" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C128" s="4">
-        <v>7</v>
+      <c r="C128" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>22</v>
@@ -13431,8 +13448,8 @@
       <c r="B129" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C129" s="4">
-        <v>7</v>
+      <c r="C129" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>23</v>
@@ -13455,8 +13472,8 @@
       <c r="B130" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C130" s="4">
-        <v>7</v>
+      <c r="C130" s="4" t="s">
+        <v>3282</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>24</v>
@@ -13472,15 +13489,15 @@
         <v>21232</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B131" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C131" s="4">
-        <v>8</v>
+      <c r="C131" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>22</v>
@@ -13496,15 +13513,15 @@
         <v>27035</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B132" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="4">
-        <v>8</v>
+      <c r="C132" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>23</v>
@@ -13520,15 +13537,15 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="4">
-        <v>8</v>
+      <c r="C133" s="4" t="s">
+        <v>3283</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>24</v>
@@ -13544,15 +13561,15 @@
         <v>16905</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B134" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C134" s="4">
-        <v>9</v>
+      <c r="C134" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>22</v>
@@ -13568,15 +13585,15 @@
         <v>16647</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C135" s="4">
-        <v>9</v>
+      <c r="C135" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>23</v>
@@ -13592,15 +13609,15 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C136" s="4">
-        <v>9</v>
+      <c r="C136" s="4" t="s">
+        <v>3284</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>24</v>
@@ -13616,15 +13633,15 @@
         <v>11698</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B137" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C137" s="4">
-        <v>10</v>
+      <c r="C137" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>22</v>
@@ -13640,15 +13657,15 @@
         <v>14764</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C138" s="4">
-        <v>10</v>
+      <c r="C138" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>23</v>
@@ -13664,15 +13681,15 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C139" s="4">
-        <v>10</v>
+      <c r="C139" s="4" t="s">
+        <v>3285</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>24</v>
@@ -13688,15 +13705,15 @@
         <v>13712</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C140" s="4">
-        <v>11</v>
+      <c r="C140" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>22</v>
@@ -13712,15 +13729,15 @@
         <v>14459</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C141" s="4">
-        <v>11</v>
+      <c r="C141" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>23</v>
@@ -13736,15 +13753,15 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C142" s="4">
-        <v>11</v>
+      <c r="C142" s="4" t="s">
+        <v>3286</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>24</v>
@@ -13760,15 +13777,15 @@
         <v>12025</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="4">
-        <v>12</v>
+      <c r="C143" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>22</v>
@@ -13784,15 +13801,15 @@
         <v>18268</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C144" s="4">
-        <v>12</v>
+      <c r="C144" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>23</v>
@@ -13808,15 +13825,15 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C145" s="4">
-        <v>12</v>
+      <c r="C145" s="4" t="s">
+        <v>3287</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>24</v>
@@ -13833,13 +13850,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G145" xr:uid="{86AD0A80-12C8-4902-A4F7-E008F189B3E5}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="7"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G145" xr:uid="{86AD0A80-12C8-4902-A4F7-E008F189B3E5}"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
